--- a/00.data/00.cds/cds_yearly_avg_emerging.xlsx
+++ b/00.data/00.cds/cds_yearly_avg_emerging.xlsx
@@ -1,37 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>África do Sul</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Colômbia</t>
+  </si>
+  <si>
+    <t>Coréia do Sul</t>
+  </si>
+  <si>
+    <t>México</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Tailândia</t>
+  </si>
+  <si>
+    <t>Indonésia</t>
+  </si>
+  <si>
+    <t>Turquia</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +90,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1014 +406,956 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>África do Sul</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Chile</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>China</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Colômbia</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Coréia do Sul</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>México</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Peru</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Tailândia</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Indonésia</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Turquia</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
         <v>2000</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>196.7008196721312</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>607.5490196078431</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:12">
+      <c r="A3">
         <v>2001</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>193.0606743295019</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>957.280701754386</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>266.6885964912281</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>860.4836168582375</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:12">
+      <c r="A4">
         <v>2002</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>209.9923409961686</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>1940.127394636015</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>62.50532876712329</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>263.3869731800766</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>133.2345360824742</v>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>850.3697011494253</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:12">
+      <c r="A5">
         <v>2003</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>143.3842681992337</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>1004.46053256705</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>106.6176762295082</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>41.41675819672131</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>561.9912704918032</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>88.59427586206897</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>181.5986590038314</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>299.8052075471698</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>69.41614176245211</v>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>754.7961724137931</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:12">
+      <c r="A6">
         <v>2004</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>101.4444961832061</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>544.124534351145</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>42.60509923664122</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>32.7293893129771</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>432.1621717557252</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>47.89146946564885</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>115.9883625954199</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>363.3016717557252</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>38.57946946564886</v>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>392.6035458015267</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:12">
+      <c r="A7">
         <v>2005</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>58.26956153846154</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>327.8830423076923</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>22.36885</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>25.45540769230769</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>287.1858807692308</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>33.59275384615385</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>84.69233076923078</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>195.3247692307692</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>34.91472692307692</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>251.6412642276423</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>247.2154615384615</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:12">
+      <c r="A8">
         <v>2006</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>51.12233461538462</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>141.5466192307692</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>20.52313076923077</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>19.48253076923077</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>140.0463807692308</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>23.63465384615385</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>59.54789230769231</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>152.7167461538461</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>37.18172692307692</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>171.3736230769231</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>186.0993576923077</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:12">
+      <c r="A9">
         <v>2007</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>43.29688505747126</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>89.69011877394635</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>18.66632950191571</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>17.53052873563218</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>111.9176130268199</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>24.10722605363985</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>47.13327969348659</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>92.1888275862069</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>45.27941379310344</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>134.5247203065134</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>170.3722222222222</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:12">
+      <c r="A10">
         <v>2008</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>233.1245877862596</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>187.9063053435114</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>102.9141603053435</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>90.52983969465649</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>217.5288740458015</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>162.2295076335878</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>167.3271335877863</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>189.1666259541985</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>147.8849427480916</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>369.6273167938932</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>317.784645038168</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:12">
+      <c r="A11">
         <v>2009</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>246.3995692307692</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>211.7685423076923</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>134.4991384615385</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>115.9559038461538</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>246.7654846153846</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>203.4932153846154</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>239.4944384615384</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>224.7315461538462</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>151.9296730769231</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>355.7168</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>283.1375653846154</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:12">
+      <c r="A12">
         <v>2010</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>142.5810039215687</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>121.9289843137255</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>80.97277647058824</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>73.62999215686276</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>134.7504117647059</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>101.2652117647059</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>122.6902549019608</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>121.4423098039216</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>111.9305960784314</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>162.3282</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>166.6183058823529</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:12">
+      <c r="A13">
         <v>2011</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>149.6074787644788</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>132.9052162162162</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>92.14957142857143</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>102.1736409266409</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>131.2135637065637</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>123.0418378378378</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>130.3796061776062</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>145.1280115830116</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>143.357444015444</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>169.4926602316602</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>205.4619845559846</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:12">
+      <c r="A14">
         <v>2012</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>160.0443831417625</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>130.1475517241379</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>97.22513409961685</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>107.6625172413793</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>119.4307739463602</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>115.7066283524904</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>120.0664214559387</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>130.046724137931</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>145.9003754789272</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>177.3242068965517</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>210.3660268199234</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:12">
+      <c r="A15">
         <v>2013</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>190.2223088803089</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>157.0480193050193</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>80.59038996138996</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>83.91215057915058</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>113.5032664092664</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>75.30523938223938</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>105.6234478764479</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>118.9672741312741</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>107.341</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>197.0691621621622</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15">
         <v>171.7418223938224</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:12">
+      <c r="A16">
         <v>2014</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>189.7098210116731</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>163.3549221789883</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>75.11370428015564</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>83.31959143968871</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>101.1879805447471</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>57.33624902723735</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>84.16731517509727</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>103.9820389105058</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>113.054</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>166.122252918288</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16">
         <v>199.1510389105059</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:12">
+      <c r="A17">
         <v>2015</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>232.4496858237548</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>316.1868850574713</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>105.2824789272031</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>98.40392720306514</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>183.9577471264368</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>57.09346360153257</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>134.5159923371648</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>151.073398467433</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>118.8777432950192</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>189.7212528735632</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17">
         <v>234.8335747126437</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:12">
+      <c r="A18">
         <v>2016</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>286.3430231660232</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>339.4683204633205</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>98.10207722007722</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>117.8748957528957</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>212.1687799227799</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>54.77343243243243</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>166.188305019305</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>142.8642586872587</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>118.5050193050193</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>184.518749034749</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18">
         <v>266.710861003861</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:12">
+      <c r="A19">
         <v>2017</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>190.2911556420233</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>211.5467354085603</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>66.02059922178989</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>74.41116731517509</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>128.7971750972763</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>57.14508949416343</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>120.6659922178988</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>88.11647859922179</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>56.90961867704281</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>116.8444319066148</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19">
         <v>207.2286614785992</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:12">
+      <c r="A20">
         <v>2018</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>189.2102984496124</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>207.896980620155</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>51.40031007751939</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>60.49827519379845</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>113.5519573643411</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>44.6269496124031</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>121.4366821705426</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>80.40428682170543</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>46.4199496124031</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>118.7827441860465</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20">
         <v>304.4756279069767</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:12">
+      <c r="A21">
         <v>2019</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>184.4776115384616</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>148.2121730769231</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>42.66416153846154</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>46.55535</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>99.02215769230769</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>34.01446153846154</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>113.8543576923077</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>59.32007307692307</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>35.65357692307693</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>97.53302307692307</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21">
         <v>378.6702769230769</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:12">
+      <c r="A22">
         <v>2020</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>284.6879609375</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>212.2285381679389</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>72.97780534351145</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>42.2082748091603</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>141.3952022900763</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>34.81</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>143.1665801526718</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>76.17550381679389</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>43.84433969465649</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>120.9839881889764</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22">
         <v>442.687</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:12">
+      <c r="A23">
         <v>2021</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>209.0461603053435</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>192.8988664122137</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>66.03714503816794</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>38.58216030534351</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>142.6954809160305</v>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>96.14330152671755</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>83.59768702290077</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>39.20703053435115</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23">
         <v>77.90423828125</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23">
         <v>401.6141641221374</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:12">
+      <c r="A24">
         <v>2022</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>261.8269846153846</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>251.6617384615385</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>111.5782846153846</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>75.32792307692307</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>259.4867884615385</v>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>140.4026192307692</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>115.4405884615385</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>54.45238076923077</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24">
         <v>110.2760538461539</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L24">
         <v>664.2153923076924</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:12">
+      <c r="A25">
         <v>2023</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>264.1718961538461</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>196.6091346153846</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>81.7893076923077</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>68.23259999999999</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>246.0891346153846</v>
       </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>113.0356384615385</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>93.02871538461538</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>49.11884615384615</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25">
         <v>88.19711923076923</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L25">
         <v>467.5100807692307</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:12">
+      <c r="A26">
         <v>2024</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>210.8575267175572</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>151.5588015267176</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>54.81792366412214</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>64.17218320610688</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>186.9013129770992</v>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>105.8815572519084</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26">
         <v>74.45002671755725</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26">
         <v>40.51312977099237</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26">
         <v>72.79056870229007</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L26">
         <v>281.7252251908397</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:12">
+      <c r="A27">
         <v>2025</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>194.8373883928571</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>161.83253125</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>57.30792410714286</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>49.53644196428571</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>211.4011919642857</v>
       </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>114.6129598214286</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27">
         <v>81.06943303571428</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27">
         <v>45.81511160714285</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K27">
         <v>80.45326785714285</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L27">
         <v>282.5938348214286</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>